--- a/ClueLayoutUpdated.xlsx
+++ b/ClueLayoutUpdated.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn\Documents\CSCI306\ClueBoardDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn\eclipse-workspace\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F484D891-0F30-46AA-87F5-9009B410FED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA2300-79AE-40C6-9E9D-EE9E0B31663F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{17597C92-5A73-493F-A498-1F3B3F438DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="41">
   <si>
     <t>Number of Doors: 12</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>L*</t>
-  </si>
-  <si>
-    <t>A*</t>
   </si>
   <si>
     <t>Dark Orange: adjacency walkways</t>
@@ -166,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +282,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -320,6 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,15 +641,15 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="27" max="27" width="50.7109375" customWidth="1"/>
+    <col min="27" max="27" width="50.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>0</v>
       </c>
@@ -722,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -802,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -882,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -959,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1100,26 +1104,26 @@
       <c r="T6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" ht="15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1196,90 +1200,90 @@
         <v>6</v>
       </c>
       <c r="AA7" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1311,16 +1315,16 @@
         <v>4</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>4</v>
@@ -1341,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>4</v>
@@ -1357,7 +1361,7 @@
       </c>
       <c r="AA9" s="15"/>
     </row>
-    <row r="10" spans="1:27" ht="15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1389,16 +1393,16 @@
         <v>4</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>4</v>
@@ -1413,28 +1417,28 @@
         <v>4</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1466,16 +1470,16 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>4</v>
@@ -1484,34 +1488,34 @@
         <v>4</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1540,19 +1544,19 @@
         <v>4</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>4</v>
@@ -1561,34 +1565,34 @@
         <v>4</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1620,16 +1624,16 @@
         <v>4</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>4</v>
@@ -1638,34 +1642,34 @@
         <v>4</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1715,34 +1719,34 @@
         <v>4</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1792,34 +1796,34 @@
         <v>4</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1869,34 +1873,34 @@
         <v>4</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1946,19 +1950,19 @@
         <v>4</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>4</v>
@@ -1973,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2023,16 +2027,16 @@
         <v>4</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>4</v>
@@ -2050,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2100,16 +2104,16 @@
         <v>4</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>4</v>
@@ -2118,39 +2122,39 @@
         <v>4</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>4</v>
@@ -2195,39 +2199,39 @@
         <v>4</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>4</v>
@@ -2272,39 +2276,39 @@
         <v>4</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>4</v>
@@ -2349,39 +2353,39 @@
         <v>4</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>4</v>
@@ -2414,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>4</v>
@@ -2426,101 +2430,101 @@
         <v>4</v>
       </c>
       <c r="W23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y23" s="4" t="s">
-        <v>29</v>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -2547,31 +2551,31 @@
         <v>4</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>4</v>
@@ -2580,24 +2584,24 @@
         <v>4</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -2624,49 +2628,49 @@
         <v>4</v>
       </c>
       <c r="L26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X26" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="Y26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2701,49 +2705,49 @@
         <v>4</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="Y27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2778,31 +2782,31 @@
         <v>4</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>4</v>
@@ -2811,43 +2815,43 @@
         <v>4</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="J29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2855,31 +2859,31 @@
         <v>4</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>4</v>
@@ -2888,33 +2892,33 @@
         <v>4</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
@@ -2923,7 +2927,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>4</v>
@@ -2965,45 +2969,45 @@
         <v>4</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>4</v>
@@ -3042,42 +3046,42 @@
         <v>4</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>2</v>
@@ -3119,13 +3123,13 @@
         <v>2</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ClueLayoutUpdated.xlsx
+++ b/ClueLayoutUpdated.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn\eclipse-workspace\ClueGame\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA2300-79AE-40C6-9E9D-EE9E0B31663F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{62A22F7E-D4FA-4FF7-ADAB-CF12D0EE9599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{17597C92-5A73-493F-A498-1F3B3F438DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="42">
   <si>
     <t>Number of Doors: 12</t>
   </si>
@@ -157,6 +152,9 @@
   </si>
   <si>
     <t>D*</t>
+  </si>
+  <si>
+    <t>A*</t>
   </si>
 </sst>
 </file>
@@ -640,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEC89F6-B891-4E34-BD84-9CC01E41E9E5}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1105,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>6</v>
@@ -1392,11 +1390,11 @@
       <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>18</v>
@@ -2141,8 +2139,8 @@
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
+      <c r="D20" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>29</v>
@@ -2224,8 +2222,8 @@
       <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>30</v>
+      <c r="F21" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>29</v>
@@ -2266,14 +2264,14 @@
       <c r="S21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>4</v>
+      <c r="T21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>28</v>
@@ -2343,14 +2341,14 @@
       <c r="S22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>4</v>
+      <c r="T22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="W22" s="4" t="s">
         <v>28</v>
@@ -2663,8 +2661,8 @@
       <c r="W26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X26" s="8" t="s">
-        <v>33</v>
+      <c r="X26" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>28</v>
